--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ce.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66995A45-BC40-470E-91B4-A90DAD33A3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9DC3D-13BB-C140-B9A2-8580A12631BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1142,16 +1142,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1175,9 +1169,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,21 +1476,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="B185" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186:I205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -1511,7 +1504,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2300101</v>
       </c>
@@ -1522,7 +1515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2300150</v>
       </c>
@@ -1533,7 +1526,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2300200</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2300309</v>
       </c>
@@ -1555,7 +1548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2300408</v>
       </c>
@@ -1566,7 +1559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2300507</v>
       </c>
@@ -1577,7 +1570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2300606</v>
       </c>
@@ -1588,7 +1581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2300705</v>
       </c>
@@ -1599,7 +1592,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2300754</v>
       </c>
@@ -1610,7 +1603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2300804</v>
       </c>
@@ -1621,7 +1614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2300903</v>
       </c>
@@ -1632,7 +1625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2301000</v>
       </c>
@@ -1643,7 +1636,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2301109</v>
       </c>
@@ -1654,7 +1647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2301208</v>
       </c>
@@ -1665,7 +1658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2301257</v>
       </c>
@@ -1676,7 +1669,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2301307</v>
       </c>
@@ -1687,7 +1680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2301406</v>
       </c>
@@ -1698,7 +1691,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2301505</v>
       </c>
@@ -1709,7 +1702,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2301604</v>
       </c>
@@ -1720,7 +1713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2301703</v>
       </c>
@@ -1731,7 +1724,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2301802</v>
       </c>
@@ -1742,7 +1735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2301851</v>
       </c>
@@ -1753,7 +1746,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2301901</v>
       </c>
@@ -1764,7 +1757,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2301950</v>
       </c>
@@ -1775,7 +1768,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2302008</v>
       </c>
@@ -1786,7 +1779,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2302057</v>
       </c>
@@ -1797,7 +1790,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2302107</v>
       </c>
@@ -1808,7 +1801,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2302206</v>
       </c>
@@ -1819,7 +1812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2302305</v>
       </c>
@@ -1830,7 +1823,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2302404</v>
       </c>
@@ -1841,7 +1834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2302503</v>
       </c>
@@ -1852,7 +1845,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2302602</v>
       </c>
@@ -1863,7 +1856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2302701</v>
       </c>
@@ -1874,7 +1867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2302800</v>
       </c>
@@ -1885,7 +1878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2302909</v>
       </c>
@@ -1896,7 +1889,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2303006</v>
       </c>
@@ -1907,7 +1900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2303105</v>
       </c>
@@ -1918,7 +1911,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2303204</v>
       </c>
@@ -1929,7 +1922,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2303303</v>
       </c>
@@ -1940,7 +1933,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2303402</v>
       </c>
@@ -1951,7 +1944,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2303501</v>
       </c>
@@ -1962,7 +1955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2303600</v>
       </c>
@@ -1973,7 +1966,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2303659</v>
       </c>
@@ -1984,7 +1977,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2303709</v>
       </c>
@@ -1995,7 +1988,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2303808</v>
       </c>
@@ -2006,7 +1999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2303907</v>
       </c>
@@ -2017,7 +2010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2303931</v>
       </c>
@@ -2028,7 +2021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2303956</v>
       </c>
@@ -2039,7 +2032,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2304004</v>
       </c>
@@ -2050,7 +2043,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2304103</v>
       </c>
@@ -2061,7 +2054,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2304202</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2304236</v>
       </c>
@@ -2083,7 +2076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2304251</v>
       </c>
@@ -2094,7 +2087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2304269</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2304277</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2304285</v>
       </c>
@@ -2127,7 +2120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2304301</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2304350</v>
       </c>
@@ -2149,7 +2142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2304400</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2304459</v>
       </c>
@@ -2171,7 +2164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2304509</v>
       </c>
@@ -2182,7 +2175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2304608</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2304657</v>
       </c>
@@ -2204,7 +2197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2304707</v>
       </c>
@@ -2215,7 +2208,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2304806</v>
       </c>
@@ -2226,7 +2219,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2304905</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2304954</v>
       </c>
@@ -2248,7 +2241,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2305001</v>
       </c>
@@ -2259,7 +2252,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2305100</v>
       </c>
@@ -2270,7 +2263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2305209</v>
       </c>
@@ -2281,7 +2274,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2305233</v>
       </c>
@@ -2292,7 +2285,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2305266</v>
       </c>
@@ -2303,7 +2296,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2305308</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2305332</v>
       </c>
@@ -2325,7 +2318,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2305357</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2305407</v>
       </c>
@@ -2347,7 +2340,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2305506</v>
       </c>
@@ -2358,7 +2351,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2305605</v>
       </c>
@@ -2369,7 +2362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2305654</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2305704</v>
       </c>
@@ -2391,7 +2384,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2305803</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2305902</v>
       </c>
@@ -2413,7 +2406,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2306009</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2306108</v>
       </c>
@@ -2435,7 +2428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2306207</v>
       </c>
@@ -2446,7 +2439,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2306256</v>
       </c>
@@ -2457,7 +2450,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2306306</v>
       </c>
@@ -2468,7 +2461,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2306405</v>
       </c>
@@ -2479,7 +2472,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2306504</v>
       </c>
@@ -2490,7 +2483,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2306553</v>
       </c>
@@ -2501,7 +2494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2306603</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2306702</v>
       </c>
@@ -2523,7 +2516,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2306801</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2306900</v>
       </c>
@@ -2545,7 +2538,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2307007</v>
       </c>
@@ -2556,7 +2549,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2307106</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2307205</v>
       </c>
@@ -2578,7 +2571,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2307254</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2307304</v>
       </c>
@@ -2600,7 +2593,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2307403</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2307502</v>
       </c>
@@ -2622,7 +2615,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2307601</v>
       </c>
@@ -2633,7 +2626,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2307635</v>
       </c>
@@ -2644,7 +2637,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2307650</v>
       </c>
@@ -2655,7 +2648,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2307700</v>
       </c>
@@ -2666,7 +2659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2307809</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2307908</v>
       </c>
@@ -2688,7 +2681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2308005</v>
       </c>
@@ -2699,7 +2692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2308104</v>
       </c>
@@ -2710,7 +2703,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2308203</v>
       </c>
@@ -2721,7 +2714,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2308302</v>
       </c>
@@ -2732,7 +2725,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2308351</v>
       </c>
@@ -2743,7 +2736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2308377</v>
       </c>
@@ -2754,7 +2747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2308401</v>
       </c>
@@ -2765,7 +2758,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2308500</v>
       </c>
@@ -2776,7 +2769,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2308609</v>
       </c>
@@ -2787,7 +2780,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2308708</v>
       </c>
@@ -2798,7 +2791,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2308807</v>
       </c>
@@ -2809,7 +2802,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2308906</v>
       </c>
@@ -2820,7 +2813,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2309003</v>
       </c>
@@ -2831,7 +2824,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2309102</v>
       </c>
@@ -2842,7 +2835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2309201</v>
       </c>
@@ -2853,7 +2846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2309300</v>
       </c>
@@ -2864,7 +2857,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2309409</v>
       </c>
@@ -2875,7 +2868,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2309458</v>
       </c>
@@ -2886,7 +2879,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2309508</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2309607</v>
       </c>
@@ -2908,7 +2901,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2309706</v>
       </c>
@@ -2919,7 +2912,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2309805</v>
       </c>
@@ -2930,7 +2923,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2309904</v>
       </c>
@@ -2941,7 +2934,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2310001</v>
       </c>
@@ -2952,7 +2945,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2310100</v>
       </c>
@@ -2963,7 +2956,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2310209</v>
       </c>
@@ -2974,7 +2967,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2310258</v>
       </c>
@@ -2985,7 +2978,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2310308</v>
       </c>
@@ -2996,7 +2989,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2310407</v>
       </c>
@@ -3007,7 +3000,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2310506</v>
       </c>
@@ -3018,7 +3011,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2310605</v>
       </c>
@@ -3029,7 +3022,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2310704</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2310803</v>
       </c>
@@ -3051,7 +3044,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2310852</v>
       </c>
@@ -3062,7 +3055,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2310902</v>
       </c>
@@ -3073,7 +3066,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2310951</v>
       </c>
@@ -3084,7 +3077,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2311009</v>
       </c>
@@ -3095,7 +3088,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2311108</v>
       </c>
@@ -3106,7 +3099,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2311207</v>
       </c>
@@ -3117,7 +3110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2311231</v>
       </c>
@@ -3128,7 +3121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2311264</v>
       </c>
@@ -3139,7 +3132,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2311306</v>
       </c>
@@ -3150,7 +3143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2311355</v>
       </c>
@@ -3161,7 +3154,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2311405</v>
       </c>
@@ -3172,7 +3165,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2311504</v>
       </c>
@@ -3183,7 +3176,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2311603</v>
       </c>
@@ -3194,7 +3187,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2311702</v>
       </c>
@@ -3205,7 +3198,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2311801</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2311900</v>
       </c>
@@ -3227,7 +3220,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2311959</v>
       </c>
@@ -3238,7 +3231,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2312007</v>
       </c>
@@ -3249,7 +3242,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2312106</v>
       </c>
@@ -3260,7 +3253,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2312205</v>
       </c>
@@ -3271,7 +3264,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2312304</v>
       </c>
@@ -3282,7 +3275,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2312403</v>
       </c>
@@ -3293,7 +3286,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2312502</v>
       </c>
@@ -3304,7 +3297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2312601</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2312700</v>
       </c>
@@ -3326,7 +3319,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2312809</v>
       </c>
@@ -3337,7 +3330,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2312908</v>
       </c>
@@ -3348,7 +3341,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2313005</v>
       </c>
@@ -3359,7 +3352,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2313104</v>
       </c>
@@ -3370,7 +3363,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2313203</v>
       </c>
@@ -3381,7 +3374,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2313252</v>
       </c>
@@ -3392,7 +3385,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2313302</v>
       </c>
@@ -3403,7 +3396,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2313351</v>
       </c>
@@ -3414,7 +3407,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2313401</v>
       </c>
@@ -3425,7 +3418,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2313500</v>
       </c>
@@ -3436,7 +3429,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2313559</v>
       </c>
@@ -3447,7 +3440,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2313609</v>
       </c>
@@ -3458,7 +3451,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2313708</v>
       </c>
@@ -3469,7 +3462,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2313757</v>
       </c>
@@ -3480,7 +3473,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2313807</v>
       </c>
@@ -3491,7 +3484,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2313906</v>
       </c>
@@ -3502,7 +3495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2313955</v>
       </c>
@@ -3513,7 +3506,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2314003</v>
       </c>
@@ -3524,7 +3517,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2314102</v>
       </c>
@@ -3534,9 +3527,6 @@
       <c r="C185" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
